--- a/Andrew-annotations/LTRX_Q3_2015.xlsx
+++ b/Andrew-annotations/LTRX_Q3_2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0774C0-4EF9-4196-9F36-50A94A39FA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3F55EF-B6C8-46B3-BBDE-B727F5C9A49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,13 +584,13 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -686,10 +686,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
@@ -712,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -811,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
@@ -875,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -904,13 +904,13 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
